--- a/tests_cases/TC-Print3-06.xlsx
+++ b/tests_cases/TC-Print3-06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{562F0CBC-AF36-4798-961C-28788895F8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53551E1F-DC6D-4D02-8165-5E1565664077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{302E093B-764D-4D95-A688-E9D094BAFE00}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>HU-4</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>La pagina no deberia permitirlo, se pone el campo en rojo y un cartel de campo inmodificable</t>
+  </si>
+  <si>
+    <t>PE-53</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -457,17 +457,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -485,12 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -534,15 +517,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -555,12 +583,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -570,9 +598,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -582,46 +607,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7055385C-AEA0-4868-9B9E-6E1D40EC9E67}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,10 +950,10 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -973,235 +962,249 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23">
+      <c r="C8" s="36"/>
+      <c r="D8" s="19">
         <v>1</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="23">
+      <c r="C9" s="38"/>
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="23">
+      <c r="C10" s="40"/>
+      <c r="D10" s="19">
         <v>3</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>4</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="28">
+      <c r="C11" s="38"/>
+      <c r="D11" s="20">
         <v>4</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="37" t="s">
+      <c r="E15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="40" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="B17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44" t="s">
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>1</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
-        <v>1</v>
-      </c>
-      <c r="B18" s="47" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="47" t="s">
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>2</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46">
-        <v>2</v>
-      </c>
-      <c r="B19" s="47" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47" t="s">
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="48"/>
-    </row>
-    <row r="20" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46">
-        <v>3</v>
-      </c>
-      <c r="B20" s="47" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49" t="s">
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>4</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46">
-        <v>4</v>
-      </c>
-      <c r="B21" s="47" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="47" t="s">
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>5</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="48"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46">
-        <v>5</v>
-      </c>
-      <c r="B22" s="47" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47" t="s">
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>6</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="48"/>
-    </row>
-    <row r="23" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46">
-        <v>6</v>
-      </c>
-      <c r="B23" s="47" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="48"/>
+      <c r="E23" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B20:C20"/>
@@ -1210,19 +1213,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
